--- a/results/minimal_seats-Finland.xlsx
+++ b/results/minimal_seats-Finland.xlsx
@@ -19,43 +19,43 @@
     <t>Key</t>
   </si>
   <si>
-    <t xml:space="preserve">AS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KD </t>
-  </si>
-  <si>
-    <t>KES</t>
-  </si>
-  <si>
-    <t>KOK</t>
-  </si>
-  <si>
-    <t>LKP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS </t>
-  </si>
-  <si>
-    <t>SDP</t>
-  </si>
-  <si>
-    <t>SFP</t>
-  </si>
-  <si>
-    <t>VAS</t>
-  </si>
-  <si>
-    <t>VIH</t>
-  </si>
-  <si>
-    <t>EKO</t>
-  </si>
-  <si>
-    <t>NUO</t>
-  </si>
-  <si>
-    <t>Oth</t>
+    <t>AS - Åland Coalition (Åländsk Samling, AS)</t>
+  </si>
+  <si>
+    <t>KD - Christian Democrats (Kristillisdemokraatit, KD), known until 25 May 2001 as Christian League (SKL, Suomen Kristillinen Liitto)</t>
+  </si>
+  <si>
+    <t>KESK - Centre Party (Suomen Keskusta, KESK)</t>
+  </si>
+  <si>
+    <t>KOK - National Coalition (Kansallinen Kokoomus, KOK)</t>
+  </si>
+  <si>
+    <t>LKP - Liberal People’s Party (Liberaalinen Kansanpuolue, LKP)</t>
+  </si>
+  <si>
+    <t>PS - The Finns Party (Perussuomalaiset, PS), known until  as True Finns (PS, Perussuomalaiset/ Sannfinländarna), known from  until 13 October 1995 as Finnish Rural Party (SMP, Suomen maaseudun puolue)</t>
+  </si>
+  <si>
+    <t>SDP - Social Democratic Party (Sosialidemokraattinen Puolue, SDP)</t>
+  </si>
+  <si>
+    <t>SFP - Swedish People’s Party (Svenska Folkpartiet, SFP)</t>
+  </si>
+  <si>
+    <t>VAS - Left-Wing Alliance (Vasemmistoliitto , VAS)</t>
+  </si>
+  <si>
+    <t>VIHR - Green League (Vihrea Liitto, VIHR)</t>
+  </si>
+  <si>
+    <t>EKO - Ecological Party (Ekologinen Puolue, EKO)</t>
+  </si>
+  <si>
+    <t>NUORS - Progressive Finnish Party (Nuorsuomalainen Puolue, NUORS)</t>
+  </si>
+  <si>
+    <t>Other - Other (-, Other)</t>
   </si>
   <si>
     <t>1991</t>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>4.999999999999996</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>32</v>
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="I8">
-        <v>5.999999999999998</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>9.000000000000004</v>
+        <v>9</v>
       </c>
       <c r="K8">
-        <v>11.99999999999999</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -725,28 +725,28 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>3.999999999999996</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>16.99999999999999</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>21.99999999999999</v>
+        <v>22</v>
       </c>
       <c r="G9">
-        <v>22.99999999999999</v>
+        <v>23</v>
       </c>
       <c r="H9">
-        <v>23.99999999999999</v>
+        <v>24</v>
       </c>
       <c r="I9">
-        <v>7.000000000000004</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>9.999999999999986</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>12.99999999999999</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>2</v>
